--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1786,7 +1786,9 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1787,7 +1787,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
